--- a/BackTest/2019-10-30 BackTest MTL.xlsx
+++ b/BackTest/2019-10-30 BackTest MTL.xlsx
@@ -2656,20 +2656,14 @@
         <v>393.35</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>392</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2697,20 +2691,14 @@
         <v>393.25</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>394</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2738,20 +2726,14 @@
         <v>393.15</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>392</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2779,20 +2761,14 @@
         <v>393.2</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>394</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2820,20 +2796,14 @@
         <v>393.3</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>394</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2861,20 +2831,14 @@
         <v>393.35</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>395</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2902,20 +2866,14 @@
         <v>393.5</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>397</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2950,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2989,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3028,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3067,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3106,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3145,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3184,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3262,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3301,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3340,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3372,20 +3286,14 @@
         <v>394.25</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>394</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3420,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3459,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3498,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3530,20 +3426,14 @@
         <v>394.35</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>392</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3571,20 +3461,14 @@
         <v>394.25</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>392</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3612,20 +3496,14 @@
         <v>394.15</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>392</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3653,20 +3531,14 @@
         <v>394.05</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>393</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3694,20 +3566,14 @@
         <v>393.85</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>393</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3735,20 +3601,14 @@
         <v>393.6</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>392</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3776,20 +3636,14 @@
         <v>393.4</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>392</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3817,20 +3671,14 @@
         <v>393.35</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>393</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3858,20 +3706,14 @@
         <v>393.25</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>394</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3899,20 +3741,14 @@
         <v>393.15</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>392</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3940,20 +3776,14 @@
         <v>393.1</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>392</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3981,20 +3811,14 @@
         <v>393.15</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>395</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4022,20 +3846,14 @@
         <v>393.05</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>391</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4063,20 +3881,14 @@
         <v>393</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>395</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4104,20 +3916,14 @@
         <v>392.95</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>392</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4145,20 +3951,14 @@
         <v>392.7</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>391</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4186,20 +3986,14 @@
         <v>392.55</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>391</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4227,20 +4021,14 @@
         <v>392.45</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>392</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4268,20 +4056,14 @@
         <v>392.4</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>392</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4309,20 +4091,14 @@
         <v>392.35</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>391</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4350,20 +4126,14 @@
         <v>392.35</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>392</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4391,20 +4161,14 @@
         <v>392.35</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>392</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4432,20 +4196,14 @@
         <v>392.35</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>392</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4473,20 +4231,14 @@
         <v>392.45</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>395</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4514,20 +4266,14 @@
         <v>392.45</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>393</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4555,20 +4301,14 @@
         <v>392.55</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>394</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4596,20 +4336,14 @@
         <v>392.7</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>395</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4637,20 +4371,14 @@
         <v>392.85</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>396</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4678,20 +4406,14 @@
         <v>392.85</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>394</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4719,20 +4441,14 @@
         <v>393.05</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>396</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4760,20 +4476,14 @@
         <v>393.25</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>396</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4801,20 +4511,14 @@
         <v>393.35</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>397</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4842,20 +4546,14 @@
         <v>393.7</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>398</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4890,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4929,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4968,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5000,20 +4686,14 @@
         <v>394.3</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>395</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5048,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5087,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5126,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5158,20 +4826,14 @@
         <v>394.9</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>395</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5206,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5245,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5284,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5323,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5362,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5440,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5479,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5518,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5557,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5596,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5635,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5674,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5713,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5752,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5791,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5869,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5908,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5947,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5986,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6025,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6064,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6103,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6142,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6181,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6220,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6298,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6337,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6376,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6415,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6454,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6493,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6532,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6571,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6610,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6649,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6727,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6766,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6805,11 +6303,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6844,11 +6338,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6883,11 +6373,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6922,11 +6408,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6961,11 +6443,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7000,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7039,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7078,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7156,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7195,11 +6653,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7234,11 +6688,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7273,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7312,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7351,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7390,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7429,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7468,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7507,11 +6933,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +6968,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7585,11 +7003,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7624,11 +7038,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7663,11 +7073,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7702,11 +7108,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7741,11 +7143,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7780,11 +7178,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7819,11 +7213,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7858,11 +7248,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7897,11 +7283,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7936,11 +7318,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +7353,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8014,11 +7388,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8053,11 +7423,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8092,11 +7458,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8131,11 +7493,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8170,11 +7528,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8209,11 +7563,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8248,11 +7598,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8287,11 +7633,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8326,11 +7668,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8365,11 +7703,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +7738,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8443,11 +7773,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8482,11 +7808,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8521,11 +7843,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8560,11 +7878,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8599,11 +7913,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8638,11 +7948,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8677,11 +7983,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8716,11 +8018,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8755,11 +8053,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8794,11 +8088,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +8123,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8872,11 +8158,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8911,11 +8193,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8950,11 +8228,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8989,11 +8263,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9028,11 +8298,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9067,11 +8333,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9106,11 +8368,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9145,11 +8403,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9184,11 +8438,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9223,11 +8473,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +8508,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9301,11 +8543,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9340,11 +8578,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9379,11 +8613,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9418,11 +8648,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9457,11 +8683,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9496,11 +8718,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9535,11 +8753,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9574,11 +8788,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9613,11 +8823,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9652,11 +8858,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +8893,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9730,11 +8928,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9769,11 +8963,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9808,11 +8998,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9847,11 +9033,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9886,11 +9068,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9925,11 +9103,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9964,11 +9138,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10003,11 +9173,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10042,11 +9208,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10081,11 +9243,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +9278,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10159,11 +9313,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10198,11 +9348,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10237,11 +9383,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10276,11 +9418,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10315,11 +9453,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10354,11 +9488,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10393,11 +9523,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10432,11 +9558,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10471,11 +9593,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10510,11 +9628,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +9663,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10588,11 +9698,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10627,11 +9733,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10666,11 +9768,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10705,11 +9803,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10744,11 +9838,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10783,11 +9873,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10822,11 +9908,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10861,11 +9943,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10900,11 +9978,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10939,11 +10013,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +10048,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11017,11 +10083,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11056,11 +10118,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11095,11 +10153,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11134,11 +10188,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11173,11 +10223,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11212,11 +10258,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11251,11 +10293,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11290,11 +10328,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11329,11 +10363,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11368,11 +10398,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +10433,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11446,11 +10468,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11485,11 +10503,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11524,11 +10538,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11563,11 +10573,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11602,11 +10608,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11641,11 +10643,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11680,11 +10678,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11719,11 +10713,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11758,11 +10748,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11797,11 +10783,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +10818,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11875,11 +10853,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11914,11 +10888,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11953,11 +10923,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11992,11 +10958,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12031,11 +10993,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12070,11 +11028,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12109,11 +11063,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12148,11 +11098,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12180,18 +11126,18 @@
         <v>399.65</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="n">
+        <v>399</v>
+      </c>
+      <c r="K307" t="n">
+        <v>399</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12219,16 +11165,20 @@
         <v>399.4</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>399</v>
+      </c>
+      <c r="K308" t="n">
+        <v>399</v>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M308" t="n">
@@ -12258,16 +11208,20 @@
         <v>399.2</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>399</v>
+      </c>
+      <c r="K309" t="n">
+        <v>399</v>
+      </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M309" t="n">
@@ -12297,16 +11251,20 @@
         <v>398.85</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>399</v>
+      </c>
+      <c r="K310" t="n">
+        <v>399</v>
+      </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M310" t="n">
@@ -12336,13 +11294,17 @@
         <v>398.5</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>395</v>
+      </c>
+      <c r="K311" t="n">
+        <v>399</v>
+      </c>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12375,13 +11337,17 @@
         <v>398.1</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>394</v>
+      </c>
+      <c r="K312" t="n">
+        <v>399</v>
+      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12414,13 +11380,17 @@
         <v>398</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>395</v>
+      </c>
+      <c r="K313" t="n">
+        <v>399</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12453,13 +11423,17 @@
         <v>397.75</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>395</v>
+      </c>
+      <c r="K314" t="n">
+        <v>399</v>
+      </c>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12492,13 +11466,17 @@
         <v>397.65</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>394</v>
+      </c>
+      <c r="K315" t="n">
+        <v>399</v>
+      </c>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12531,13 +11509,17 @@
         <v>397.7</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>399</v>
+      </c>
+      <c r="K316" t="n">
+        <v>399</v>
+      </c>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12570,13 +11552,17 @@
         <v>397.75</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>400</v>
+      </c>
+      <c r="K317" t="n">
+        <v>399</v>
+      </c>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12609,13 +11595,17 @@
         <v>397.9</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>402</v>
+      </c>
+      <c r="K318" t="n">
+        <v>399</v>
+      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12648,13 +11638,17 @@
         <v>398.05</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>402</v>
+      </c>
+      <c r="K319" t="n">
+        <v>399</v>
+      </c>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12693,7 +11687,9 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>399</v>
+      </c>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12732,7 +11728,9 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>399</v>
+      </c>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12771,7 +11769,9 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>399</v>
+      </c>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12810,7 +11810,9 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>399</v>
+      </c>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12849,7 +11851,9 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>399</v>
+      </c>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12888,7 +11892,9 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>399</v>
+      </c>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12927,7 +11933,9 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>399</v>
+      </c>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12966,7 +11974,9 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>399</v>
+      </c>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13005,7 +12015,9 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>399</v>
+      </c>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13044,7 +12056,9 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>399</v>
+      </c>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13083,7 +12097,9 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>399</v>
+      </c>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13122,7 +12138,9 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>399</v>
+      </c>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13161,7 +12179,9 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>399</v>
+      </c>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13200,7 +12220,9 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>399</v>
+      </c>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13239,7 +12261,9 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>399</v>
+      </c>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13278,7 +12302,9 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>399</v>
+      </c>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13317,7 +12343,9 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>399</v>
+      </c>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13356,7 +12384,9 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>399</v>
+      </c>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13395,7 +12425,9 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>399</v>
+      </c>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13434,7 +12466,9 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>399</v>
+      </c>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13473,7 +12507,9 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>399</v>
+      </c>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13512,7 +12548,9 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>399</v>
+      </c>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13551,7 +12589,9 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>399</v>
+      </c>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13590,7 +12630,9 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>399</v>
+      </c>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13629,7 +12671,9 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>399</v>
+      </c>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13668,7 +12712,9 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>399</v>
+      </c>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13707,7 +12753,9 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>399</v>
+      </c>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13746,7 +12794,9 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>399</v>
+      </c>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13785,7 +12835,9 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>399</v>
+      </c>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13824,7 +12876,9 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>399</v>
+      </c>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13863,7 +12917,9 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>399</v>
+      </c>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13902,7 +12958,9 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>399</v>
+      </c>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13941,7 +12999,9 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>399</v>
+      </c>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13980,7 +13040,9 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>399</v>
+      </c>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14019,7 +13081,9 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>399</v>
+      </c>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14058,7 +13122,9 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>399</v>
+      </c>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14097,7 +13163,9 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>399</v>
+      </c>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14136,7 +13204,9 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>399</v>
+      </c>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14175,7 +13245,9 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>399</v>
+      </c>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14214,7 +13286,9 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>399</v>
+      </c>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14253,7 +13327,9 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>399</v>
+      </c>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14292,7 +13368,9 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>399</v>
+      </c>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14331,7 +13409,9 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>399</v>
+      </c>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14370,7 +13450,9 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>399</v>
+      </c>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14409,7 +13491,9 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>399</v>
+      </c>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14448,7 +13532,9 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>399</v>
+      </c>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14487,7 +13573,9 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>399</v>
+      </c>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14520,13 +13608,17 @@
         <v>397.95</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>397</v>
+      </c>
+      <c r="K367" t="n">
+        <v>399</v>
+      </c>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14559,13 +13651,17 @@
         <v>397.8</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>398</v>
+      </c>
+      <c r="K368" t="n">
+        <v>399</v>
+      </c>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14598,13 +13694,17 @@
         <v>397.65</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>400</v>
+      </c>
+      <c r="K369" t="n">
+        <v>399</v>
+      </c>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14637,13 +13737,17 @@
         <v>397.5</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>395</v>
+      </c>
+      <c r="K370" t="n">
+        <v>399</v>
+      </c>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14676,13 +13780,17 @@
         <v>397.35</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>397</v>
+      </c>
+      <c r="K371" t="n">
+        <v>399</v>
+      </c>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14721,7 +13829,9 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>399</v>
+      </c>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14754,13 +13864,17 @@
         <v>396.95</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>393</v>
+      </c>
+      <c r="K373" t="n">
+        <v>399</v>
+      </c>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14793,13 +13907,17 @@
         <v>396.85</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>396</v>
+      </c>
+      <c r="K374" t="n">
+        <v>399</v>
+      </c>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14832,13 +13950,17 @@
         <v>396.8</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>397</v>
+      </c>
+      <c r="K375" t="n">
+        <v>399</v>
+      </c>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14877,7 +13999,9 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>399</v>
+      </c>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14916,7 +14040,9 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>399</v>
+      </c>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14955,7 +14081,9 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>399</v>
+      </c>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14988,13 +14116,17 @@
         <v>396.65</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>398</v>
+      </c>
+      <c r="K379" t="n">
+        <v>399</v>
+      </c>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15033,7 +14165,9 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>399</v>
+      </c>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15072,7 +14206,9 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>399</v>
+      </c>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15111,7 +14247,9 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>399</v>
+      </c>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15150,7 +14288,9 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>399</v>
+      </c>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15189,7 +14329,9 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>399</v>
+      </c>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15228,7 +14370,9 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>399</v>
+      </c>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15267,7 +14411,9 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>399</v>
+      </c>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15306,7 +14452,9 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>399</v>
+      </c>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15345,7 +14493,9 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>399</v>
+      </c>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15384,7 +14534,9 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>399</v>
+      </c>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15423,7 +14575,9 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>399</v>
+      </c>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15462,7 +14616,9 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>399</v>
+      </c>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15501,7 +14657,9 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>399</v>
+      </c>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15540,7 +14698,9 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>399</v>
+      </c>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15579,7 +14739,9 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>399</v>
+      </c>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15618,7 +14780,9 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>399</v>
+      </c>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15657,7 +14821,9 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>399</v>
+      </c>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15696,7 +14862,9 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>399</v>
+      </c>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15735,7 +14903,9 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>399</v>
+      </c>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15774,7 +14944,9 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>399</v>
+      </c>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15813,7 +14985,9 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>399</v>
+      </c>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15852,7 +15026,9 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>399</v>
+      </c>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15891,7 +15067,9 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>399</v>
+      </c>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15930,7 +15108,9 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>399</v>
+      </c>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15969,7 +15149,9 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>399</v>
+      </c>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16008,7 +15190,9 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>399</v>
+      </c>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16047,7 +15231,9 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>399</v>
+      </c>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16086,7 +15272,9 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>399</v>
+      </c>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16125,7 +15313,9 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>399</v>
+      </c>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16164,7 +15354,9 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>399</v>
+      </c>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16203,7 +15395,9 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>399</v>
+      </c>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16242,7 +15436,9 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>399</v>
+      </c>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16281,7 +15477,9 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>399</v>
+      </c>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16320,7 +15518,9 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>399</v>
+      </c>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16359,7 +15559,9 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>399</v>
+      </c>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16398,7 +15600,9 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>399</v>
+      </c>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16437,7 +15641,9 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>399</v>
+      </c>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16476,7 +15682,9 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>399</v>
+      </c>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16515,7 +15723,9 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>399</v>
+      </c>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16554,7 +15764,9 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>399</v>
+      </c>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16593,7 +15805,9 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>399</v>
+      </c>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16632,7 +15846,9 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>399</v>
+      </c>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16671,7 +15887,9 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>399</v>
+      </c>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16710,7 +15928,9 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>399</v>
+      </c>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16749,7 +15969,9 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>399</v>
+      </c>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16788,7 +16010,9 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>399</v>
+      </c>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16827,7 +16051,9 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>399</v>
+      </c>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16866,7 +16092,9 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>399</v>
+      </c>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16905,7 +16133,9 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>399</v>
+      </c>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16944,7 +16174,9 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>399</v>
+      </c>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16983,7 +16215,9 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>399</v>
+      </c>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17022,7 +16256,9 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>399</v>
+      </c>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17061,7 +16297,9 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>399</v>
+      </c>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17100,7 +16338,9 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>399</v>
+      </c>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17139,7 +16379,9 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>399</v>
+      </c>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17178,7 +16420,9 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>399</v>
+      </c>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17217,7 +16461,9 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>399</v>
+      </c>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17256,7 +16502,9 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>399</v>
+      </c>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17295,7 +16543,9 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>399</v>
+      </c>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17334,7 +16584,9 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>399</v>
+      </c>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17373,7 +16625,9 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>399</v>
+      </c>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17412,7 +16666,9 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>399</v>
+      </c>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17451,7 +16707,9 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>399</v>
+      </c>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17490,7 +16748,9 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>399</v>
+      </c>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17529,7 +16789,9 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>399</v>
+      </c>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17568,7 +16830,9 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>399</v>
+      </c>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17607,7 +16871,9 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>399</v>
+      </c>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17646,7 +16912,9 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>399</v>
+      </c>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17685,7 +16953,9 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>399</v>
+      </c>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17724,7 +16994,9 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>399</v>
+      </c>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17763,7 +17035,9 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>399</v>
+      </c>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17802,7 +17076,9 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>399</v>
+      </c>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17841,7 +17117,9 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>399</v>
+      </c>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17880,7 +17158,9 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>399</v>
+      </c>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17919,7 +17199,9 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>399</v>
+      </c>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17958,7 +17240,9 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>399</v>
+      </c>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17997,7 +17281,9 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>399</v>
+      </c>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18036,7 +17322,9 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>399</v>
+      </c>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18075,7 +17363,9 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>399</v>
+      </c>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18114,7 +17404,9 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>399</v>
+      </c>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18153,7 +17445,9 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>399</v>
+      </c>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18192,7 +17486,9 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>399</v>
+      </c>
       <c r="L461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18231,7 +17527,9 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>399</v>
+      </c>
       <c r="L462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18270,7 +17568,9 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>399</v>
+      </c>
       <c r="L463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18309,7 +17609,9 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>399</v>
+      </c>
       <c r="L464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18348,7 +17650,9 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>399</v>
+      </c>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18387,7 +17691,9 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>399</v>
+      </c>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18426,7 +17732,9 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>399</v>
+      </c>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18465,7 +17773,9 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>399</v>
+      </c>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18504,7 +17814,9 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>399</v>
+      </c>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18543,7 +17855,9 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>399</v>
+      </c>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18582,7 +17896,9 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>399</v>
+      </c>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18621,7 +17937,9 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>399</v>
+      </c>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18660,7 +17978,9 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>399</v>
+      </c>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18699,7 +18019,9 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>399</v>
+      </c>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18738,7 +18060,9 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>399</v>
+      </c>
       <c r="L475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18777,7 +18101,9 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>399</v>
+      </c>
       <c r="L476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18816,7 +18142,9 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>399</v>
+      </c>
       <c r="L477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18855,7 +18183,9 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>399</v>
+      </c>
       <c r="L478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18894,7 +18224,9 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>399</v>
+      </c>
       <c r="L479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18933,7 +18265,9 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>399</v>
+      </c>
       <c r="L480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18972,7 +18306,9 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>399</v>
+      </c>
       <c r="L481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19011,7 +18347,9 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>399</v>
+      </c>
       <c r="L482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19050,7 +18388,9 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>399</v>
+      </c>
       <c r="L483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19089,7 +18429,9 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>399</v>
+      </c>
       <c r="L484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19128,7 +18470,9 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>399</v>
+      </c>
       <c r="L485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19167,7 +18511,9 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>399</v>
+      </c>
       <c r="L486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19206,7 +18552,9 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>399</v>
+      </c>
       <c r="L487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19245,7 +18593,9 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>399</v>
+      </c>
       <c r="L488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19284,7 +18634,9 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>399</v>
+      </c>
       <c r="L489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19323,7 +18675,9 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>399</v>
+      </c>
       <c r="L490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19362,7 +18716,9 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>399</v>
+      </c>
       <c r="L491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19401,7 +18757,9 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>399</v>
+      </c>
       <c r="L492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19440,7 +18798,9 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>399</v>
+      </c>
       <c r="L493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19479,7 +18839,9 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>399</v>
+      </c>
       <c r="L494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19518,7 +18880,9 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>399</v>
+      </c>
       <c r="L495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19557,7 +18921,9 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>399</v>
+      </c>
       <c r="L496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19596,7 +18962,9 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>399</v>
+      </c>
       <c r="L497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19635,7 +19003,9 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>399</v>
+      </c>
       <c r="L498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19674,7 +19044,9 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>399</v>
+      </c>
       <c r="L499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19713,7 +19085,9 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>399</v>
+      </c>
       <c r="L500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19752,7 +19126,9 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>399</v>
+      </c>
       <c r="L501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19791,7 +19167,9 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>399</v>
+      </c>
       <c r="L502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19830,7 +19208,9 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>399</v>
+      </c>
       <c r="L503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19869,7 +19249,9 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>399</v>
+      </c>
       <c r="L504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19908,7 +19290,9 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>399</v>
+      </c>
       <c r="L505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19947,7 +19331,9 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>399</v>
+      </c>
       <c r="L506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19986,7 +19372,9 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>399</v>
+      </c>
       <c r="L507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20025,7 +19413,9 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>399</v>
+      </c>
       <c r="L508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20064,7 +19454,9 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>399</v>
+      </c>
       <c r="L509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20103,7 +19495,9 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>399</v>
+      </c>
       <c r="L510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20142,7 +19536,9 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>399</v>
+      </c>
       <c r="L511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20181,7 +19577,9 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>399</v>
+      </c>
       <c r="L512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20220,7 +19618,9 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>399</v>
+      </c>
       <c r="L513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20259,7 +19659,9 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>399</v>
+      </c>
       <c r="L514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20298,7 +19700,9 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>399</v>
+      </c>
       <c r="L515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20337,7 +19741,9 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>399</v>
+      </c>
       <c r="L516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20376,7 +19782,9 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>399</v>
+      </c>
       <c r="L517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20415,7 +19823,9 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>399</v>
+      </c>
       <c r="L518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20454,7 +19864,9 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>399</v>
+      </c>
       <c r="L519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20493,7 +19905,9 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>399</v>
+      </c>
       <c r="L520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20532,7 +19946,9 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>399</v>
+      </c>
       <c r="L521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20571,7 +19987,9 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>399</v>
+      </c>
       <c r="L522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20610,7 +20028,9 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>399</v>
+      </c>
       <c r="L523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20649,7 +20069,9 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>399</v>
+      </c>
       <c r="L524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20688,7 +20110,9 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>399</v>
+      </c>
       <c r="L525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20727,7 +20151,9 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>399</v>
+      </c>
       <c r="L526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20766,7 +20192,9 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>399</v>
+      </c>
       <c r="L527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20805,7 +20233,9 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>399</v>
+      </c>
       <c r="L528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20844,7 +20274,9 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>399</v>
+      </c>
       <c r="L529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20877,13 +20309,17 @@
         <v>399.7</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
       </c>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>397</v>
+      </c>
+      <c r="K530" t="n">
+        <v>399</v>
+      </c>
       <c r="L530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20916,13 +20352,17 @@
         <v>399.35</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
       </c>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>397</v>
+      </c>
+      <c r="K531" t="n">
+        <v>399</v>
+      </c>
       <c r="L531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20955,13 +20395,17 @@
         <v>398.95</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
       </c>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>397</v>
+      </c>
+      <c r="K532" t="n">
+        <v>399</v>
+      </c>
       <c r="L532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20994,13 +20438,17 @@
         <v>398.95</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
       </c>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>400</v>
+      </c>
+      <c r="K533" t="n">
+        <v>399</v>
+      </c>
       <c r="L533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21033,13 +20481,17 @@
         <v>398.85</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
       </c>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>402</v>
+      </c>
+      <c r="K534" t="n">
+        <v>399</v>
+      </c>
       <c r="L534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21072,13 +20524,17 @@
         <v>398.7</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
       </c>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>400</v>
+      </c>
+      <c r="K535" t="n">
+        <v>399</v>
+      </c>
       <c r="L535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21117,7 +20573,9 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>399</v>
+      </c>
       <c r="L536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21156,7 +20614,9 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>399</v>
+      </c>
       <c r="L537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21195,7 +20655,9 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>399</v>
+      </c>
       <c r="L538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21234,7 +20696,9 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>399</v>
+      </c>
       <c r="L539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21273,7 +20737,9 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>399</v>
+      </c>
       <c r="L540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21312,7 +20778,9 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>399</v>
+      </c>
       <c r="L541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21351,7 +20819,9 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>399</v>
+      </c>
       <c r="L542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21390,7 +20860,9 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>399</v>
+      </c>
       <c r="L543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21429,7 +20901,9 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>399</v>
+      </c>
       <c r="L544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21468,7 +20942,9 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>399</v>
+      </c>
       <c r="L545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21507,7 +20983,9 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>399</v>
+      </c>
       <c r="L546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21546,7 +21024,9 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>399</v>
+      </c>
       <c r="L547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21585,7 +21065,9 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>399</v>
+      </c>
       <c r="L548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21624,7 +21106,9 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>399</v>
+      </c>
       <c r="L549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21663,7 +21147,9 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>399</v>
+      </c>
       <c r="L550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21702,7 +21188,9 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>399</v>
+      </c>
       <c r="L551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21741,7 +21229,9 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>399</v>
+      </c>
       <c r="L552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21780,7 +21270,9 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>399</v>
+      </c>
       <c r="L553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21819,7 +21311,9 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>399</v>
+      </c>
       <c r="L554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21858,7 +21352,9 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>399</v>
+      </c>
       <c r="L555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21897,7 +21393,9 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>399</v>
+      </c>
       <c r="L556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21936,7 +21434,9 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>399</v>
+      </c>
       <c r="L557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21975,7 +21475,9 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>399</v>
+      </c>
       <c r="L558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22014,7 +21516,9 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>399</v>
+      </c>
       <c r="L559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22053,7 +21557,9 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>399</v>
+      </c>
       <c r="L560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22092,7 +21598,9 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>399</v>
+      </c>
       <c r="L561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22131,7 +21639,9 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>399</v>
+      </c>
       <c r="L562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22170,7 +21680,9 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>399</v>
+      </c>
       <c r="L563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22209,7 +21721,9 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>399</v>
+      </c>
       <c r="L564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22248,7 +21762,9 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>399</v>
+      </c>
       <c r="L565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22287,7 +21803,9 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>399</v>
+      </c>
       <c r="L566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22326,7 +21844,9 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>399</v>
+      </c>
       <c r="L567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22365,7 +21885,9 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>399</v>
+      </c>
       <c r="L568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22404,7 +21926,9 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>399</v>
+      </c>
       <c r="L569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22443,7 +21967,9 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>399</v>
+      </c>
       <c r="L570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22482,7 +22008,9 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>399</v>
+      </c>
       <c r="L571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22521,7 +22049,9 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>399</v>
+      </c>
       <c r="L572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22560,7 +22090,9 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>399</v>
+      </c>
       <c r="L573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22599,7 +22131,9 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>399</v>
+      </c>
       <c r="L574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22638,7 +22172,9 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="n">
+        <v>399</v>
+      </c>
       <c r="L575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22677,7 +22213,9 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="n">
+        <v>399</v>
+      </c>
       <c r="L576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22716,7 +22254,9 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="n">
+        <v>399</v>
+      </c>
       <c r="L577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22755,7 +22295,9 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="n">
+        <v>399</v>
+      </c>
       <c r="L578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22794,7 +22336,9 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="n">
+        <v>399</v>
+      </c>
       <c r="L579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22833,7 +22377,9 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="n">
+        <v>399</v>
+      </c>
       <c r="L580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22869,17 +22415,19 @@
         <v>0</v>
       </c>
       <c r="I581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="n">
+        <v>399</v>
+      </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M581" t="n">
-        <v>1</v>
+        <v>1.060162907268171</v>
       </c>
     </row>
     <row r="582">
@@ -22908,15 +22456,11 @@
         <v>0</v>
       </c>
       <c r="I582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L582" t="inlineStr"/>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -22951,11 +22495,7 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L583" t="inlineStr"/>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -22990,11 +22530,7 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L584" t="inlineStr"/>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -23029,11 +22565,7 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L585" t="inlineStr"/>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -23068,11 +22600,7 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L586" t="inlineStr"/>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -23103,16 +22631,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M587" t="inlineStr"/>
+      <c r="L587" t="inlineStr"/>
+      <c r="M587" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -23140,7 +22666,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
@@ -23175,7 +22701,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
@@ -23210,7 +22736,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
@@ -23245,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
@@ -23280,7 +22806,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
@@ -23315,7 +22841,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>

--- a/BackTest/2019-10-30 BackTest MTL.xlsx
+++ b/BackTest/2019-10-30 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -5269,10 +5269,14 @@
         <v>879424.9973898999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>393</v>
+      </c>
+      <c r="J148" t="n">
+        <v>393</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
@@ -5302,11 +5306,19 @@
         <v>879426.1773899</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>392</v>
+      </c>
+      <c r="J149" t="n">
+        <v>393</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5347,19 @@
         <v>879437.2073899</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>393</v>
+      </c>
+      <c r="J150" t="n">
+        <v>393</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5388,19 @@
         <v>879379.4436899</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>394</v>
+      </c>
+      <c r="J151" t="n">
+        <v>393</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5429,19 @@
         <v>879379.4436899</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>392</v>
+      </c>
+      <c r="J152" t="n">
+        <v>393</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5470,19 @@
         <v>879447.4436899</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>392</v>
+      </c>
+      <c r="J153" t="n">
+        <v>393</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5511,19 @@
         <v>879447.4436899</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>393</v>
+      </c>
+      <c r="J154" t="n">
+        <v>393</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5552,19 @@
         <v>879071.0108899</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>393</v>
+      </c>
+      <c r="J155" t="n">
+        <v>393</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5593,19 @@
         <v>878537.8453899</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>392</v>
+      </c>
+      <c r="J156" t="n">
+        <v>393</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5634,19 @@
         <v>878538.9653899</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>391</v>
+      </c>
+      <c r="J157" t="n">
+        <v>393</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,15 +5675,19 @@
         <v>867053.2106899</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>395</v>
       </c>
       <c r="J158" t="n">
-        <v>395</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
+        <v>393</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,17 +5716,17 @@
         <v>867054.2106899</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>391</v>
       </c>
       <c r="J159" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -5677,17 +5757,17 @@
         <v>865797.5572899</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>395</v>
       </c>
       <c r="J160" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -5718,11 +5798,13 @@
         <v>865797.5572899</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>391</v>
+      </c>
       <c r="J161" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5757,13 +5839,13 @@
         <v>865797.5572899</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>391</v>
       </c>
       <c r="J162" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5798,11 +5880,13 @@
         <v>865797.5572899</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>391</v>
+      </c>
       <c r="J163" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5837,11 +5921,13 @@
         <v>865593.5572899</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>391</v>
+      </c>
       <c r="J164" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5876,11 +5962,13 @@
         <v>865793.5572899</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>390</v>
+      </c>
       <c r="J165" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -5915,13 +6003,13 @@
         <v>864771.0407899</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>391</v>
       </c>
       <c r="J166" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -5956,13 +6044,13 @@
         <v>868513.3772899</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>390</v>
       </c>
       <c r="J167" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -5997,13 +6085,13 @@
         <v>869716.90178533</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>391</v>
       </c>
       <c r="J168" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6038,13 +6126,13 @@
         <v>868914.2017853301</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>394</v>
       </c>
       <c r="J169" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6079,13 +6167,13 @@
         <v>868914.2017853301</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>393</v>
       </c>
       <c r="J170" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6120,13 +6208,13 @@
         <v>868914.2017853301</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>393</v>
       </c>
       <c r="J171" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6161,13 +6249,13 @@
         <v>868916.2017853301</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>393</v>
       </c>
       <c r="J172" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6202,13 +6290,13 @@
         <v>868916.2017853301</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>396</v>
       </c>
       <c r="J173" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6243,13 +6331,13 @@
         <v>868670.9874853301</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>396</v>
       </c>
       <c r="J174" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6284,11 +6372,13 @@
         <v>868673.9874853301</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>394</v>
+      </c>
       <c r="J175" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6323,11 +6413,13 @@
         <v>868673.9874853301</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>396</v>
+      </c>
       <c r="J176" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6362,11 +6454,13 @@
         <v>873067.68008533</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>396</v>
+      </c>
       <c r="J177" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6405,7 +6499,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6444,7 +6538,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6483,7 +6577,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6522,7 +6616,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6561,7 +6655,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6600,7 +6694,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6635,11 +6729,13 @@
         <v>871409.5362853301</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>394</v>
+      </c>
       <c r="J184" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6678,7 +6774,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6717,7 +6813,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6756,7 +6852,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6791,11 +6887,13 @@
         <v>871965.7980853301</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>393</v>
+      </c>
       <c r="J188" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6834,7 +6932,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6873,7 +6971,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6912,7 +7010,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6951,7 +7049,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6990,7 +7088,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7025,11 +7123,13 @@
         <v>867641.19038533</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>397</v>
+      </c>
       <c r="J194" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7064,11 +7164,13 @@
         <v>867641.19038533</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>399</v>
+      </c>
       <c r="J195" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7107,7 +7209,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7146,7 +7248,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7185,7 +7287,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7224,7 +7326,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7263,7 +7365,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7302,7 +7404,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7341,7 +7443,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7380,7 +7482,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7419,7 +7521,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7458,7 +7560,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7497,7 +7599,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7536,7 +7638,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7575,7 +7677,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7614,7 +7716,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7653,7 +7755,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7692,7 +7794,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7731,7 +7833,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7770,7 +7872,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7809,7 +7911,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7848,7 +7950,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7887,7 +7989,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7926,7 +8028,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7965,7 +8067,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8004,7 +8106,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8043,7 +8145,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8082,7 +8184,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8121,7 +8223,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8160,7 +8262,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8199,7 +8301,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8238,7 +8340,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8277,7 +8379,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8316,7 +8418,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8355,7 +8457,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8394,7 +8496,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8433,7 +8535,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8472,7 +8574,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8511,7 +8613,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8550,7 +8652,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8589,7 +8691,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8628,7 +8730,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8667,7 +8769,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8706,7 +8808,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8745,7 +8847,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8784,7 +8886,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8823,7 +8925,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8862,7 +8964,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8901,7 +9003,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8940,7 +9042,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8979,7 +9081,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9018,7 +9120,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9057,7 +9159,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9096,7 +9198,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9135,7 +9237,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9174,7 +9276,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9213,7 +9315,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9252,7 +9354,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9291,7 +9393,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9330,7 +9432,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9369,7 +9471,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9408,7 +9510,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9447,7 +9549,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9486,7 +9588,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9525,7 +9627,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9564,7 +9666,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9603,7 +9705,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9642,7 +9744,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9681,7 +9783,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9720,7 +9822,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9759,7 +9861,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9798,7 +9900,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9837,7 +9939,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9876,7 +9978,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9915,7 +10017,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9954,7 +10056,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9993,7 +10095,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10032,7 +10134,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10071,7 +10173,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10110,7 +10212,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10149,7 +10251,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10188,7 +10290,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10227,7 +10329,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10266,7 +10368,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10305,7 +10407,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10344,7 +10446,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10383,7 +10485,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10422,7 +10524,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10461,7 +10563,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10500,7 +10602,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10539,7 +10641,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10574,19 +10676,19 @@
         <v>953423.3659420902</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L285" t="n">
-        <v>1.032974683544304</v>
+        <v>1</v>
       </c>
       <c r="M285" t="inlineStr"/>
     </row>
@@ -10613,11 +10715,17 @@
         <v>953423.3659420902</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>393</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10646,11 +10754,17 @@
         <v>948184.3831073102</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>393</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10679,11 +10793,17 @@
         <v>955378.6487073102</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>393</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10715,8 +10835,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>393</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10745,11 +10871,17 @@
         <v>958109.5606073103</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>393</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10778,11 +10910,17 @@
         <v>957904.9207073103</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>393</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10811,11 +10949,17 @@
         <v>941940.5147733303</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>393</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10844,11 +10988,17 @@
         <v>951815.6118733303</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>393</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10877,11 +11027,17 @@
         <v>951666.2732733303</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>393</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10910,11 +11066,17 @@
         <v>949357.0060733303</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>393</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10943,11 +11105,17 @@
         <v>937140.6441733303</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>393</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10976,11 +11144,17 @@
         <v>938049.7490733303</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>393</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11012,8 +11186,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>393</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11045,8 +11225,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>393</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11078,8 +11264,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>393</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11111,8 +11303,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>393</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11144,8 +11342,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>393</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11177,8 +11381,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>393</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11210,8 +11420,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>393</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11243,8 +11459,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>393</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11273,11 +11495,17 @@
         <v>937978.2888508303</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>393</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11306,11 +11534,17 @@
         <v>937977.2888508303</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>393</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11342,8 +11576,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>393</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11375,8 +11615,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>393</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11408,8 +11654,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>393</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11441,8 +11693,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>393</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11474,8 +11732,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>393</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11507,8 +11771,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>393</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11537,11 +11807,17 @@
         <v>947684.8970508302</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>393</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11570,11 +11846,17 @@
         <v>947684.8970508302</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>393</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11606,8 +11888,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>393</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11639,8 +11927,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>393</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11669,11 +11963,17 @@
         <v>954928.6177340002</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>393</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11702,11 +12002,17 @@
         <v>954928.6177340002</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>393</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11735,11 +12041,17 @@
         <v>954928.6177340002</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>393</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11768,11 +12080,17 @@
         <v>954928.6177340002</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>393</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11801,11 +12119,17 @@
         <v>953799.6452340002</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>393</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11834,11 +12158,17 @@
         <v>958997.8608340002</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>393</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11867,11 +12197,17 @@
         <v>958997.8608340002</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>393</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11900,11 +12236,17 @@
         <v>957775.0379340001</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>393</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11933,11 +12275,17 @@
         <v>957775.0379340001</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>393</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11969,8 +12317,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>393</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12002,8 +12356,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>393</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12035,8 +12395,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>393</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12068,8 +12434,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>393</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12101,8 +12473,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>393</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12134,8 +12512,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>393</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12167,8 +12551,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>393</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12200,8 +12590,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>393</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12233,8 +12629,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>393</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12266,8 +12668,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>393</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12299,8 +12707,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>393</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12332,8 +12746,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>393</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12365,8 +12785,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>393</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12398,8 +12824,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>393</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12431,8 +12863,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>393</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12464,8 +12902,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>393</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12497,8 +12941,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>393</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12530,8 +12980,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>393</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12563,8 +13019,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>393</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12596,8 +13058,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>393</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12629,8 +13097,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>393</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12662,8 +13136,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>393</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12695,8 +13175,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>393</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12728,8 +13214,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>393</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12761,8 +13253,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>393</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12794,8 +13292,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>393</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12827,8 +13331,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>393</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12860,8 +13370,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>393</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12893,8 +13409,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>393</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12926,8 +13448,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>393</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12959,8 +13487,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>393</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12992,8 +13526,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>393</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13025,8 +13565,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>393</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13058,8 +13604,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>393</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13091,8 +13643,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>393</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13124,8 +13682,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>393</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13157,8 +13721,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>393</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13190,8 +13760,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>393</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13223,8 +13799,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>393</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13256,8 +13838,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>393</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13289,8 +13877,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>393</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13322,8 +13916,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>393</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13355,8 +13955,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>393</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13388,8 +13994,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>393</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13421,8 +14033,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>393</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13454,8 +14072,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>393</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13487,8 +14111,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>393</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13520,8 +14150,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>393</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13553,8 +14189,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>393</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13586,8 +14228,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>393</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13619,8 +14267,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>393</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13652,8 +14306,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>393</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13685,8 +14345,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>393</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13718,8 +14384,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>393</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13751,8 +14423,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>393</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13784,8 +14462,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>393</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13817,8 +14501,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>393</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13850,8 +14540,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>393</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13883,8 +14579,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>393</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13916,8 +14618,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>393</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13949,8 +14657,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>393</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13982,8 +14696,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>393</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14015,8 +14735,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>393</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14048,8 +14774,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>393</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14081,8 +14813,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>393</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14114,8 +14852,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>393</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14147,8 +14891,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>393</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14180,8 +14930,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>393</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14213,8 +14969,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>393</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14246,8 +15008,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>393</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14279,8 +15047,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>393</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14312,8 +15086,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>393</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14345,8 +15125,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>393</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14378,8 +15164,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>393</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14411,8 +15203,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>393</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14444,8 +15242,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>393</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14477,8 +15281,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>393</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14510,8 +15320,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>393</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14543,8 +15359,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>393</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14576,8 +15398,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>393</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14609,8 +15437,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>393</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14642,8 +15476,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>393</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14675,8 +15515,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>393</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14708,8 +15554,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>393</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14741,8 +15593,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>393</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14774,8 +15632,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>393</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14807,8 +15671,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>393</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14840,8 +15710,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>393</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14873,8 +15749,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>393</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14906,8 +15788,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>393</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14939,8 +15827,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>393</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14972,8 +15866,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>393</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15005,8 +15905,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>393</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15038,8 +15944,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>393</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15071,8 +15983,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>393</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15104,8 +16022,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>393</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15137,8 +16061,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>393</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15170,8 +16100,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>393</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15203,8 +16139,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>393</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15236,8 +16178,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>393</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15269,8 +16217,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>393</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15302,8 +16256,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>393</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15335,8 +16295,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>393</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15368,8 +16334,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>393</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15401,8 +16373,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>393</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15434,8 +16412,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>393</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15467,8 +16451,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>393</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15500,8 +16490,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>393</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15533,8 +16529,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>393</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15566,8 +16568,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>393</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15599,8 +16607,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>393</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15632,8 +16646,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>393</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15665,8 +16685,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>393</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15698,8 +16724,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>393</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15731,8 +16763,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>393</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15764,8 +16802,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>393</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15797,8 +16841,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>393</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15830,8 +16880,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>393</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15863,8 +16919,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>393</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15896,8 +16958,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>393</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15929,8 +16997,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>393</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15962,8 +17036,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>393</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15995,8 +17075,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>393</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16028,8 +17114,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>393</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16061,8 +17153,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>393</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16094,8 +17192,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>393</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16127,8 +17231,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>393</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16160,8 +17270,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>393</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16193,8 +17309,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>393</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16226,8 +17348,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>393</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16259,8 +17387,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>393</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16292,8 +17426,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>393</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16325,8 +17465,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>393</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16358,8 +17504,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>393</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16391,8 +17543,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>393</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16424,8 +17582,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>393</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16457,8 +17621,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>393</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16490,8 +17660,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>393</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16523,8 +17699,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>393</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16556,8 +17738,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>393</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16589,8 +17777,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>393</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16622,8 +17816,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>393</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16655,8 +17855,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>393</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16688,8 +17894,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>393</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16721,8 +17933,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>393</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16754,8 +17972,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>393</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16787,8 +18011,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>393</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16820,8 +18050,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>393</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16853,8 +18089,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>393</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16886,8 +18128,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>393</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16919,8 +18167,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>393</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16952,8 +18206,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>393</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16985,8 +18245,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>393</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17018,8 +18284,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>393</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17051,8 +18323,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>393</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17084,8 +18362,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>393</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17117,8 +18401,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>393</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17150,8 +18440,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>393</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17183,8 +18479,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>393</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17216,8 +18518,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>393</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17249,8 +18557,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>393</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17282,8 +18596,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>393</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17315,8 +18635,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>393</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17348,8 +18674,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>393</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17381,8 +18713,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>393</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17414,8 +18752,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>393</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17447,8 +18791,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>393</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17480,8 +18830,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>393</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17513,8 +18869,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>393</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17546,8 +18908,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>393</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17579,8 +18947,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>393</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17612,8 +18986,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>393</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17645,8 +19025,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>393</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17678,8 +19064,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>393</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17711,8 +19103,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>393</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17744,8 +19142,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>393</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17777,8 +19181,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>393</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17810,8 +19220,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>393</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17843,8 +19259,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>393</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17876,8 +19298,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>393</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17909,8 +19337,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>393</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17942,8 +19376,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>393</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17975,8 +19415,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>393</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18008,8 +19454,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>393</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18041,8 +19493,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>393</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18074,8 +19532,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>393</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18107,8 +19571,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>393</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18140,8 +19610,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>393</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18173,8 +19649,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>393</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18206,8 +19688,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>393</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18239,8 +19727,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>393</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18272,8 +19766,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>393</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18305,8 +19805,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>393</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18338,8 +19844,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>393</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18371,8 +19883,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>393</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18404,8 +19922,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>393</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18437,8 +19961,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>393</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18470,8 +20000,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>393</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18503,8 +20039,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>393</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18536,8 +20078,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>393</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18569,8 +20117,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>393</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18602,8 +20156,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>393</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18635,8 +20195,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>393</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18668,8 +20234,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>393</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18701,8 +20273,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>393</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18734,8 +20312,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>393</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18767,8 +20351,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>393</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18800,8 +20390,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>393</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18833,8 +20429,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>393</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18866,8 +20468,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>393</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18899,8 +20507,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>393</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18932,8 +20546,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>393</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18965,8 +20585,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>393</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18998,8 +20624,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>393</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19031,8 +20663,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>393</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19064,8 +20702,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>393</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19097,8 +20741,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>393</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19130,8 +20780,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>393</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19163,8 +20819,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>393</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19196,8 +20858,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>393</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19229,8 +20897,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>393</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19262,8 +20936,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>393</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19295,8 +20975,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>393</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19328,8 +21014,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>393</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19361,8 +21053,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>393</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19394,8 +21092,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>393</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19427,8 +21131,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>393</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19460,8 +21170,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>393</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19493,8 +21209,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>393</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19526,8 +21248,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>393</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19559,8 +21287,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>393</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19592,8 +21326,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>393</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19625,8 +21365,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>393</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19658,8 +21404,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>393</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19691,8 +21443,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>393</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19724,8 +21482,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>393</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19757,8 +21521,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>393</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19790,8 +21560,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>393</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19823,8 +21599,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>393</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19856,8 +21638,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>393</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19889,8 +21677,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>393</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19922,8 +21716,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>393</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19955,8 +21755,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>393</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19988,8 +21794,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>393</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20021,8 +21833,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>393</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20054,8 +21872,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>393</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20087,8 +21911,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>393</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20120,8 +21950,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>393</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20153,8 +21989,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>393</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20186,8 +22028,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>393</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20219,8 +22067,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>393</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20252,8 +22106,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>393</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20285,8 +22145,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>393</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20318,8 +22184,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>393</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20351,8 +22223,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>393</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20384,8 +22262,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>393</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20417,8 +22301,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>393</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20450,8 +22340,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>393</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20483,8 +22379,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>393</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20516,8 +22418,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>393</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20549,8 +22457,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>393</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20582,8 +22496,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>393</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20615,8 +22535,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>393</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20648,8 +22574,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>393</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20681,8 +22613,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>393</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20714,8 +22652,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>393</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20747,8 +22691,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>393</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20780,8 +22730,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>393</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20813,8 +22769,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>393</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20846,8 +22808,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>393</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20879,8 +22847,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>393</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20912,8 +22886,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>393</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20945,8 +22925,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>393</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20978,8 +22964,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>393</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21011,8 +23003,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>393</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21044,8 +23042,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>393</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21077,8 +23081,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>393</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21110,8 +23120,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>393</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21143,8 +23159,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>393</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21176,8 +23198,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>393</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21209,8 +23237,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>393</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21242,8 +23276,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>393</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21275,8 +23315,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>393</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21308,8 +23354,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>393</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21341,8 +23393,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>393</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21374,8 +23432,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>393</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21407,8 +23471,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>393</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21440,8 +23510,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>393</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21473,8 +23549,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>393</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21506,8 +23588,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>393</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21539,8 +23627,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>393</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21572,8 +23666,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>393</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21605,8 +23705,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>393</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21638,8 +23744,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>393</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21671,8 +23783,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>393</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21704,8 +23822,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>393</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21737,8 +23861,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>393</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21770,8 +23900,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>393</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21803,8 +23939,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>393</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21836,8 +23978,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>393</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21869,8 +24017,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>393</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21902,8 +24056,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>393</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21935,8 +24095,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>393</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21968,8 +24134,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>393</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22001,8 +24173,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>393</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22034,8 +24212,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>393</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22067,8 +24251,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>393</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22100,8 +24290,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>393</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22133,8 +24329,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>393</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22166,8 +24368,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>393</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22199,8 +24407,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>393</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22232,8 +24446,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>393</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22262,11 +24482,17 @@
         <v>1336574.10888612</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>393</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22295,11 +24521,17 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>393</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22328,11 +24560,17 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>393</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22364,8 +24602,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>393</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22397,8 +24641,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>393</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22430,8 +24680,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>393</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22463,8 +24719,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>393</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22496,8 +24758,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>393</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22526,11 +24794,17 @@
         <v>1327880.26951555</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>393</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22559,11 +24833,17 @@
         <v>1404649.51741555</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>393</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22595,8 +24875,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>393</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22628,8 +24914,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>393</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22661,8 +24953,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>393</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22694,8 +24992,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>393</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22727,8 +25031,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>393</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22760,8 +25070,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>393</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22790,11 +25106,17 @@
         <v>1506986.26023679</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>393</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22823,15 +25145,23 @@
         <v>1486898.15293679</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>393</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L656" t="n">
-        <v>1</v>
-      </c>
-      <c r="M656" t="inlineStr"/>
+        <v>1.094236641221374</v>
+      </c>
+      <c r="M656" t="n">
+        <v>1.030690537084399</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
@@ -22856,7 +25186,7 @@
         <v>1480799.81303679</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22889,7 +25219,7 @@
         <v>1463828.13553679</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22922,7 +25252,7 @@
         <v>1484273.76763679</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22955,7 +25285,7 @@
         <v>1478563.01123679</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22988,7 +25318,7 @@
         <v>1478563.01123679</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23021,7 +25351,7 @@
         <v>1472863.26453679</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23054,7 +25384,7 @@
         <v>1480047.31363679</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23087,7 +25417,7 @@
         <v>1468729.24179712</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23120,7 +25450,7 @@
         <v>1465947.69799712</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23153,7 +25483,7 @@
         <v>1446441.081797119</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23186,7 +25516,7 @@
         <v>1428987.14479712</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23219,7 +25549,7 @@
         <v>1472835.04650664</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23252,7 +25582,7 @@
         <v>1470939.61230664</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23285,7 +25615,7 @@
         <v>1480089.20000664</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23318,7 +25648,7 @@
         <v>1480089.20000664</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23351,7 +25681,7 @@
         <v>1480089.20000664</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23384,7 +25714,7 @@
         <v>1468929.03518592</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23417,7 +25747,7 @@
         <v>1467050.74638592</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23450,7 +25780,7 @@
         <v>1417319.96188592</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23516,7 +25846,7 @@
         <v>1439049.92858592</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23549,7 +25879,7 @@
         <v>1437554.283885919</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24176,7 +26506,7 @@
         <v>1451523.008271409</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24209,7 +26539,7 @@
         <v>1448854.008271409</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24242,7 +26572,7 @@
         <v>1448854.008271409</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24275,7 +26605,7 @@
         <v>1450673.008271409</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24308,7 +26638,7 @@
         <v>1450663.008271409</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24341,7 +26671,7 @@
         <v>1453014.40857141</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24374,7 +26704,7 @@
         <v>1453828.47407141</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24407,7 +26737,7 @@
         <v>1450962.177371409</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24440,7 +26770,7 @@
         <v>1450921.53327141</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24473,7 +26803,7 @@
         <v>1451131.97237141</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24506,7 +26836,7 @@
         <v>1451608.01027141</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24539,7 +26869,7 @@
         <v>1449463.84512355</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24572,7 +26902,7 @@
         <v>1441574.84102355</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24605,7 +26935,7 @@
         <v>1441574.84102355</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24638,7 +26968,7 @@
         <v>1441574.84102355</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24671,7 +27001,7 @@
         <v>1442289.80542355</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24704,7 +27034,7 @@
         <v>1437897.43082355</v>
       </c>
       <c r="H713" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24737,7 +27067,7 @@
         <v>1437896.43082355</v>
       </c>
       <c r="H714" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24836,7 +27166,7 @@
         <v>1444146.638767499</v>
       </c>
       <c r="H717" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24869,7 +27199,7 @@
         <v>1444146.638767499</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24902,7 +27232,7 @@
         <v>1439923.809567499</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24935,7 +27265,7 @@
         <v>1436095.205167499</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24968,7 +27298,7 @@
         <v>1428013.186667499</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25001,7 +27331,7 @@
         <v>1422200.706367499</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25034,7 +27364,7 @@
         <v>1422205.706367499</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25067,7 +27397,7 @@
         <v>1410721.544867499</v>
       </c>
       <c r="H724" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25100,7 +27430,7 @@
         <v>1416070.591115319</v>
       </c>
       <c r="H725" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25199,7 +27529,7 @@
         <v>1402860.633715319</v>
       </c>
       <c r="H728" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25232,7 +27562,7 @@
         <v>1423845.258315319</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25265,7 +27595,7 @@
         <v>1415614.827315319</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25298,7 +27628,7 @@
         <v>1420247.570015319</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25331,7 +27661,7 @@
         <v>1420247.570015319</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25364,7 +27694,7 @@
         <v>1420248.570015319</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25430,7 +27760,7 @@
         <v>1410515.797715319</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25496,7 +27826,7 @@
         <v>1397017.897815319</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25529,7 +27859,7 @@
         <v>1397017.897815319</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25606,6 +27936,6 @@
       <c r="M740" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest MTL.xlsx
+++ b/BackTest/2019-10-30 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4635.155683050003</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -4114,10 +4114,14 @@
         <v>892559.86051695</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>392</v>
+      </c>
+      <c r="J113" t="n">
+        <v>392</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
@@ -4150,8 +4154,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>392</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4190,19 @@
         <v>889684.82871695</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>391</v>
+      </c>
+      <c r="J115" t="n">
+        <v>392</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4444,10 +4462,14 @@
         <v>885509.69091695</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>392</v>
+      </c>
+      <c r="J123" t="n">
+        <v>392</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
@@ -4477,11 +4499,19 @@
         <v>885561.70541695</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>391</v>
+      </c>
+      <c r="J124" t="n">
+        <v>392</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4540,19 @@
         <v>885562.70541695</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>393</v>
+      </c>
+      <c r="J125" t="n">
+        <v>392</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4581,19 @@
         <v>884902.2454169501</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>394</v>
+      </c>
+      <c r="J126" t="n">
+        <v>392</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4622,19 @@
         <v>884903.2454169501</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>392</v>
+      </c>
+      <c r="J127" t="n">
+        <v>392</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4663,19 @@
         <v>887931.1866169501</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>394</v>
+      </c>
+      <c r="J128" t="n">
+        <v>392</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4704,19 @@
         <v>895632.2723899001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>395</v>
+      </c>
+      <c r="J129" t="n">
+        <v>392</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4748,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>392</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4787,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>392</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4826,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>392</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +4865,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>392</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +4904,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>392</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +4943,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>392</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +4982,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>392</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5021,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>392</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5060,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>392</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5099,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>392</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5138,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>392</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5177,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>392</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5216,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>392</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5255,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>392</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5294,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>392</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5333,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>392</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5372,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>392</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5408,19 @@
         <v>880687.4729898999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>391</v>
+      </c>
+      <c r="J147" t="n">
+        <v>392</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5275,9 +5455,13 @@
         <v>393</v>
       </c>
       <c r="J148" t="n">
-        <v>393</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
+        <v>392</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5312,11 +5496,11 @@
         <v>392</v>
       </c>
       <c r="J149" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L149" t="n">
@@ -5353,11 +5537,11 @@
         <v>393</v>
       </c>
       <c r="J150" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -5394,7 +5578,7 @@
         <v>394</v>
       </c>
       <c r="J151" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5435,7 +5619,7 @@
         <v>392</v>
       </c>
       <c r="J152" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5476,7 +5660,7 @@
         <v>392</v>
       </c>
       <c r="J153" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5517,7 +5701,7 @@
         <v>393</v>
       </c>
       <c r="J154" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5558,7 +5742,7 @@
         <v>393</v>
       </c>
       <c r="J155" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5599,7 +5783,7 @@
         <v>392</v>
       </c>
       <c r="J156" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5640,7 +5824,7 @@
         <v>391</v>
       </c>
       <c r="J157" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5681,7 +5865,7 @@
         <v>395</v>
       </c>
       <c r="J158" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5722,7 +5906,7 @@
         <v>391</v>
       </c>
       <c r="J159" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5763,7 +5947,7 @@
         <v>395</v>
       </c>
       <c r="J160" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5804,7 +5988,7 @@
         <v>391</v>
       </c>
       <c r="J161" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5845,7 +6029,7 @@
         <v>391</v>
       </c>
       <c r="J162" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5886,7 +6070,7 @@
         <v>391</v>
       </c>
       <c r="J163" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5927,7 +6111,7 @@
         <v>391</v>
       </c>
       <c r="J164" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5968,7 +6152,7 @@
         <v>390</v>
       </c>
       <c r="J165" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6009,7 +6193,7 @@
         <v>391</v>
       </c>
       <c r="J166" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6050,7 +6234,7 @@
         <v>390</v>
       </c>
       <c r="J167" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6091,7 +6275,7 @@
         <v>391</v>
       </c>
       <c r="J168" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6132,7 +6316,7 @@
         <v>394</v>
       </c>
       <c r="J169" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6173,7 +6357,7 @@
         <v>393</v>
       </c>
       <c r="J170" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6214,7 +6398,7 @@
         <v>393</v>
       </c>
       <c r="J171" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6255,7 +6439,7 @@
         <v>393</v>
       </c>
       <c r="J172" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6296,7 +6480,7 @@
         <v>396</v>
       </c>
       <c r="J173" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6331,13 +6515,11 @@
         <v>868670.9874853301</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6378,7 +6560,7 @@
         <v>394</v>
       </c>
       <c r="J175" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6419,7 +6601,7 @@
         <v>396</v>
       </c>
       <c r="J176" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6454,13 +6636,11 @@
         <v>873067.68008533</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6499,7 +6679,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6538,7 +6718,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6573,11 +6753,13 @@
         <v>873067.68008533</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>393</v>
+      </c>
       <c r="J180" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6612,11 +6794,13 @@
         <v>873068.68008533</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>394</v>
+      </c>
       <c r="J181" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6655,7 +6839,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6694,7 +6878,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6735,7 +6919,7 @@
         <v>394</v>
       </c>
       <c r="J184" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6770,11 +6954,13 @@
         <v>873410.5362853301</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>394</v>
+      </c>
       <c r="J185" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6813,7 +6999,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6852,7 +7038,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6893,7 +7079,7 @@
         <v>393</v>
       </c>
       <c r="J188" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6932,7 +7118,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6971,7 +7157,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7010,7 +7196,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7049,7 +7235,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7088,7 +7274,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7123,13 +7309,11 @@
         <v>867641.19038533</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>397</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7164,13 +7348,11 @@
         <v>867641.19038533</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7209,7 +7391,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7248,7 +7430,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7287,7 +7469,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7326,7 +7508,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7365,7 +7547,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7404,7 +7586,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7443,7 +7625,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7482,7 +7664,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7521,7 +7703,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7560,7 +7742,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7599,7 +7781,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7638,7 +7820,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7677,7 +7859,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7716,7 +7898,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7755,7 +7937,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7794,7 +7976,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7833,7 +8015,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7872,7 +8054,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7911,7 +8093,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7950,7 +8132,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7989,7 +8171,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8028,7 +8210,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8067,7 +8249,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8106,7 +8288,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8145,7 +8327,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8184,7 +8366,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8223,7 +8405,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8262,7 +8444,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8301,7 +8483,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8340,7 +8522,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8379,7 +8561,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8418,7 +8600,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8457,7 +8639,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8496,7 +8678,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8535,7 +8717,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8574,7 +8756,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8613,7 +8795,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8652,7 +8834,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8691,7 +8873,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8730,7 +8912,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8769,7 +8951,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8808,7 +8990,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8847,7 +9029,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8886,7 +9068,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8925,7 +9107,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8964,7 +9146,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9003,7 +9185,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9042,7 +9224,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9081,7 +9263,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9120,7 +9302,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9159,7 +9341,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9198,7 +9380,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9237,7 +9419,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9276,7 +9458,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9315,7 +9497,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9354,7 +9536,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9393,7 +9575,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9432,7 +9614,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9471,7 +9653,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9510,7 +9692,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9549,7 +9731,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9588,7 +9770,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9627,7 +9809,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9666,7 +9848,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9705,7 +9887,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9744,7 +9926,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9783,7 +9965,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9822,7 +10004,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9861,7 +10043,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9900,7 +10082,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9939,7 +10121,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9978,7 +10160,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10017,7 +10199,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10056,7 +10238,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10095,7 +10277,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10134,7 +10316,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10173,7 +10355,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10212,7 +10394,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10251,7 +10433,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10290,7 +10472,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10329,7 +10511,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10368,7 +10550,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10407,7 +10589,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10446,7 +10628,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10485,7 +10667,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10524,7 +10706,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10563,7 +10745,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10602,7 +10784,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10641,7 +10823,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10680,7 +10862,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10719,7 +10901,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10758,7 +10940,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10797,7 +10979,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10836,7 +11018,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10875,7 +11057,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10914,7 +11096,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10953,7 +11135,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10992,7 +11174,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11031,7 +11213,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11070,7 +11252,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11109,7 +11291,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11148,7 +11330,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11187,7 +11369,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11226,7 +11408,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11265,7 +11447,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11304,7 +11486,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11343,7 +11525,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11382,7 +11564,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11421,7 +11603,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11460,7 +11642,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11499,7 +11681,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11538,7 +11720,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11577,7 +11759,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11616,7 +11798,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11655,7 +11837,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11694,7 +11876,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11733,7 +11915,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11772,7 +11954,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11811,7 +11993,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11850,7 +12032,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11889,7 +12071,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11928,7 +12110,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11967,7 +12149,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12006,7 +12188,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12045,7 +12227,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12084,7 +12266,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12123,7 +12305,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12162,7 +12344,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -12201,7 +12383,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12240,7 +12422,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -12279,7 +12461,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12318,7 +12500,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12357,7 +12539,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12396,7 +12578,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12435,7 +12617,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12474,7 +12656,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12513,7 +12695,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12552,7 +12734,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12591,7 +12773,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12630,7 +12812,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12669,7 +12851,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12708,7 +12890,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12747,7 +12929,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12786,7 +12968,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12825,7 +13007,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12864,7 +13046,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12903,7 +13085,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12942,7 +13124,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12981,7 +13163,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13020,7 +13202,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13059,7 +13241,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -13098,7 +13280,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -13137,7 +13319,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -13176,7 +13358,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -13215,7 +13397,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -13254,7 +13436,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -13293,7 +13475,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -13332,7 +13514,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -13371,7 +13553,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -13410,7 +13592,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -13449,7 +13631,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13488,7 +13670,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13527,7 +13709,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13566,7 +13748,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13605,7 +13787,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13644,7 +13826,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13683,7 +13865,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13722,7 +13904,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13757,11 +13939,13 @@
         <v>904460.3644848604</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>396</v>
+      </c>
       <c r="J364" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13796,11 +13980,13 @@
         <v>909496.4525848605</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>396</v>
+      </c>
       <c r="J365" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13835,11 +14021,13 @@
         <v>909496.4525848605</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>399</v>
+      </c>
       <c r="J366" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13874,11 +14062,13 @@
         <v>909496.4525848605</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>399</v>
+      </c>
       <c r="J367" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13917,7 +14107,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13952,11 +14142,13 @@
         <v>902225.3484848605</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>399</v>
+      </c>
       <c r="J369" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13991,11 +14183,13 @@
         <v>900054.2824848605</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>395</v>
+      </c>
       <c r="J370" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -14030,11 +14224,13 @@
         <v>900076.7848848605</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>394</v>
+      </c>
       <c r="J371" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -14069,11 +14265,13 @@
         <v>900076.7848848605</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>395</v>
+      </c>
       <c r="J372" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -14108,11 +14306,13 @@
         <v>895470.2959848605</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>395</v>
+      </c>
       <c r="J373" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -14147,11 +14347,13 @@
         <v>927872.5995848605</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>394</v>
+      </c>
       <c r="J374" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -14186,11 +14388,13 @@
         <v>937214.2145848605</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>399</v>
+      </c>
       <c r="J375" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -14229,7 +14433,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -14268,7 +14472,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -14307,7 +14511,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -14346,7 +14550,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -14385,7 +14589,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -14424,7 +14628,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -14463,7 +14667,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -14502,7 +14706,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14541,7 +14745,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14580,7 +14784,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14619,7 +14823,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14658,7 +14862,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14697,7 +14901,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14736,7 +14940,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14775,7 +14979,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14814,7 +15018,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14853,7 +15057,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14892,7 +15096,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14931,7 +15135,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14970,7 +15174,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -15009,7 +15213,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -15048,7 +15252,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -15087,7 +15291,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -15126,7 +15330,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -15165,7 +15369,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -15204,7 +15408,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -15243,7 +15447,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -15282,7 +15486,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -15321,7 +15525,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -15360,7 +15564,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -15399,7 +15603,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -15438,7 +15642,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -15477,7 +15681,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -15516,7 +15720,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15555,7 +15759,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15594,7 +15798,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15633,7 +15837,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15672,7 +15876,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15711,7 +15915,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15750,7 +15954,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15789,7 +15993,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15828,7 +16032,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15867,7 +16071,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15906,7 +16110,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15945,7 +16149,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15984,7 +16188,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -16023,7 +16227,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -16062,7 +16266,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -16101,7 +16305,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -16140,7 +16344,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -16179,7 +16383,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -16218,7 +16422,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -16257,7 +16461,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -16296,7 +16500,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -16335,7 +16539,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -16374,7 +16578,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -16413,7 +16617,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -16448,11 +16652,13 @@
         <v>908230.8438546804</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>396</v>
+      </c>
       <c r="J433" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -16491,7 +16697,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -16530,7 +16736,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16569,7 +16775,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16608,7 +16814,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16647,7 +16853,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16686,7 +16892,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16725,7 +16931,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16764,7 +16970,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16803,7 +17009,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16842,7 +17048,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16881,7 +17087,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16920,7 +17126,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16959,7 +17165,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16998,7 +17204,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -17037,7 +17243,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -17076,7 +17282,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -17115,7 +17321,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -17154,7 +17360,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -17193,7 +17399,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -17232,7 +17438,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -17271,7 +17477,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -17310,7 +17516,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -17349,7 +17555,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -17388,7 +17594,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -17427,7 +17633,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -17466,7 +17672,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -17505,7 +17711,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17544,7 +17750,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17583,7 +17789,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17622,7 +17828,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17661,7 +17867,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17700,7 +17906,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17739,7 +17945,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17778,7 +17984,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17817,7 +18023,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17856,7 +18062,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17895,7 +18101,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17934,7 +18140,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17973,7 +18179,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -18012,7 +18218,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -18051,7 +18257,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -18090,7 +18296,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -18129,7 +18335,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -18168,7 +18374,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -18207,7 +18413,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -18246,7 +18452,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -18285,7 +18491,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -18324,7 +18530,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -18363,7 +18569,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -18402,7 +18608,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -18441,7 +18647,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -18480,7 +18686,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -18519,7 +18725,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -18558,7 +18764,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -18597,7 +18803,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -18636,7 +18842,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -18675,7 +18881,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -18714,7 +18920,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -18753,7 +18959,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -18792,7 +18998,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -18831,7 +19037,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -18870,7 +19076,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -18909,7 +19115,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -18948,7 +19154,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -18987,7 +19193,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -19026,7 +19232,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -19065,7 +19271,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -19104,7 +19310,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -19143,7 +19349,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -19182,7 +19388,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -19221,7 +19427,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -19260,7 +19466,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -19299,7 +19505,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -19338,7 +19544,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -19377,7 +19583,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -19416,7 +19622,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -19455,7 +19661,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -19494,7 +19700,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -19533,7 +19739,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -19572,7 +19778,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -19611,7 +19817,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -19650,7 +19856,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -19689,7 +19895,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -19728,7 +19934,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -19767,7 +19973,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -19806,7 +20012,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -19845,7 +20051,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -19884,7 +20090,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -19923,7 +20129,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -19962,7 +20168,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -20001,7 +20207,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -20040,7 +20246,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -20079,7 +20285,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -20118,7 +20324,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -20157,7 +20363,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -20196,7 +20402,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -20235,7 +20441,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -20274,7 +20480,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -20313,7 +20519,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -20352,7 +20558,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -20391,7 +20597,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -20430,7 +20636,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -20469,7 +20675,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -20508,7 +20714,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -20547,7 +20753,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -20586,7 +20792,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -20625,7 +20831,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -20664,7 +20870,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -20703,7 +20909,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -20742,7 +20948,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -20781,7 +20987,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -20820,7 +21026,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -20859,7 +21065,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -20898,7 +21104,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -20937,7 +21143,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -20976,7 +21182,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -21015,7 +21221,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -21054,7 +21260,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -21093,7 +21299,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -21132,7 +21338,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -21171,7 +21377,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -21210,7 +21416,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -21249,7 +21455,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -21288,7 +21494,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -21327,7 +21533,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -21366,7 +21572,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -21405,7 +21611,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -21444,7 +21650,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -21483,7 +21689,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -21522,7 +21728,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -21561,7 +21767,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -21600,7 +21806,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -21639,7 +21845,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -21678,7 +21884,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -21717,7 +21923,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -21756,7 +21962,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -21795,7 +22001,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -21834,7 +22040,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -21873,7 +22079,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -21912,7 +22118,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -21951,7 +22157,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -21990,7 +22196,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -22029,7 +22235,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -22068,7 +22274,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -22107,7 +22313,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -22146,7 +22352,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -22185,7 +22391,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -22224,7 +22430,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -22263,7 +22469,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -22302,7 +22508,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -22341,7 +22547,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -22380,7 +22586,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -22419,7 +22625,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -22458,7 +22664,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -22497,7 +22703,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -22536,7 +22742,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -22575,7 +22781,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -22614,7 +22820,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -22653,7 +22859,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -22692,7 +22898,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -22731,7 +22937,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -22770,7 +22976,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -22809,7 +23015,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -22848,7 +23054,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -22887,7 +23093,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -22926,7 +23132,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -22965,7 +23171,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -23004,7 +23210,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -23043,7 +23249,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -23082,7 +23288,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -23121,7 +23327,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -23160,7 +23366,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -23199,7 +23405,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -23238,7 +23444,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -23277,7 +23483,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -23316,7 +23522,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -23355,7 +23561,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -23394,7 +23600,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -23433,7 +23639,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -23472,7 +23678,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -23511,7 +23717,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -23550,7 +23756,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -23589,7 +23795,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -23628,7 +23834,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -23667,7 +23873,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -23706,7 +23912,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -23745,7 +23951,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -23784,7 +23990,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -23823,7 +24029,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -23862,7 +24068,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -23901,7 +24107,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -23936,19 +24142,19 @@
         <v>1162306.37966013</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L625" t="n">
-        <v>1</v>
+        <v>1.038367346938776</v>
       </c>
       <c r="M625" t="inlineStr"/>
     </row>
@@ -23975,17 +24181,11 @@
         <v>1145474.62256013</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>393</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -24017,14 +24217,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>393</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -24056,14 +24250,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>393</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -24092,17 +24280,11 @@
         <v>1147325.84970673</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>393</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -24131,17 +24313,11 @@
         <v>1195547.04478602</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>393</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -24170,17 +24346,11 @@
         <v>1188941.84250342</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>393</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -24209,17 +24379,11 @@
         <v>1188941.84250342</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>393</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -24248,17 +24412,11 @@
         <v>1180031.69060342</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>393</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -24287,17 +24445,11 @@
         <v>1190688.39133552</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>393</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -24326,17 +24478,11 @@
         <v>1190688.39133552</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>393</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -24365,17 +24511,11 @@
         <v>1208607.88078257</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>393</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -24404,17 +24544,11 @@
         <v>1241884.56394735</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>393</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24443,17 +24577,11 @@
         <v>1336574.10888612</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>393</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24482,17 +24610,11 @@
         <v>1336574.10888612</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>393</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24521,17 +24643,11 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>393</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24560,17 +24676,11 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>393</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24599,17 +24709,11 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>393</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24638,17 +24742,11 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>393</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24677,17 +24775,11 @@
         <v>1384904.82711555</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>393</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24716,17 +24808,11 @@
         <v>1371678.83691555</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>393</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24755,17 +24841,11 @@
         <v>1327880.26951555</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>393</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24794,17 +24874,11 @@
         <v>1327880.26951555</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>393</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24836,14 +24910,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>393</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24872,17 +24940,11 @@
         <v>1472404.32193887</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>393</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24914,14 +24976,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>393</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24953,14 +25009,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>393</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24992,14 +25042,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>393</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -25031,14 +25075,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>393</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -25070,14 +25108,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>393</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -25109,14 +25141,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>393</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -25145,23 +25171,15 @@
         <v>1486898.15293679</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>393</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
-        <v>1.094236641221374</v>
-      </c>
-      <c r="M656" t="n">
-        <v>1.030690537084399</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
@@ -25186,7 +25204,7 @@
         <v>1480799.81303679</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -25219,7 +25237,7 @@
         <v>1463828.13553679</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -25252,7 +25270,7 @@
         <v>1484273.76763679</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25285,7 +25303,7 @@
         <v>1478563.01123679</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -25318,7 +25336,7 @@
         <v>1478563.01123679</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25351,7 +25369,7 @@
         <v>1472863.26453679</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -25384,7 +25402,7 @@
         <v>1480047.31363679</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25417,7 +25435,7 @@
         <v>1468729.24179712</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -25450,7 +25468,7 @@
         <v>1465947.69799712</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25483,7 +25501,7 @@
         <v>1446441.081797119</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25516,7 +25534,7 @@
         <v>1428987.14479712</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25549,7 +25567,7 @@
         <v>1472835.04650664</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25582,7 +25600,7 @@
         <v>1470939.61230664</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25615,7 +25633,7 @@
         <v>1480089.20000664</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25648,7 +25666,7 @@
         <v>1480089.20000664</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25681,7 +25699,7 @@
         <v>1480089.20000664</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25714,7 +25732,7 @@
         <v>1468929.03518592</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25747,7 +25765,7 @@
         <v>1467050.74638592</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25780,7 +25798,7 @@
         <v>1417319.96188592</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25846,7 +25864,7 @@
         <v>1439049.92858592</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -25879,7 +25897,7 @@
         <v>1437554.283885919</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26605,7 +26623,7 @@
         <v>1450673.008271409</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26638,7 +26656,7 @@
         <v>1450663.008271409</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26671,7 +26689,7 @@
         <v>1453014.40857141</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26770,7 +26788,7 @@
         <v>1450921.53327141</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26803,7 +26821,7 @@
         <v>1451131.97237141</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26836,7 +26854,7 @@
         <v>1451608.01027141</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -27364,7 +27382,7 @@
         <v>1422205.706367499</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -27397,7 +27415,7 @@
         <v>1410721.544867499</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27430,7 +27448,7 @@
         <v>1416070.591115319</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27562,7 +27580,7 @@
         <v>1423845.258315319</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27595,7 +27613,7 @@
         <v>1415614.827315319</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27628,7 +27646,7 @@
         <v>1420247.570015319</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27661,7 +27679,7 @@
         <v>1420247.570015319</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27694,7 +27712,7 @@
         <v>1420248.570015319</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27760,7 +27778,7 @@
         <v>1410515.797715319</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27826,7 +27844,7 @@
         <v>1397017.897815319</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -27859,7 +27877,7 @@
         <v>1397017.897815319</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -27936,6 +27954,6 @@
       <c r="M740" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest MTL.xlsx
+++ b/BackTest/2019-10-30 BackTest MTL.xlsx
@@ -451,7 +451,7 @@
         <v>-4635.155683050003</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -4114,14 +4114,10 @@
         <v>892559.86051695</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>392</v>
-      </c>
-      <c r="J113" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
@@ -4154,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>392</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4190,19 +4180,11 @@
         <v>889684.82871695</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>391</v>
-      </c>
-      <c r="J115" t="n">
-        <v>392</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4462,14 +4444,10 @@
         <v>885509.69091695</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>392</v>
-      </c>
-      <c r="J123" t="n">
-        <v>392</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
@@ -4499,19 +4477,11 @@
         <v>885561.70541695</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>391</v>
-      </c>
-      <c r="J124" t="n">
-        <v>392</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4540,19 +4510,11 @@
         <v>885562.70541695</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>393</v>
-      </c>
-      <c r="J125" t="n">
-        <v>392</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4581,19 +4543,11 @@
         <v>884902.2454169501</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>394</v>
-      </c>
-      <c r="J126" t="n">
-        <v>392</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4622,19 +4576,11 @@
         <v>884903.2454169501</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>392</v>
-      </c>
-      <c r="J127" t="n">
-        <v>392</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4663,19 +4609,11 @@
         <v>887931.1866169501</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>394</v>
-      </c>
-      <c r="J128" t="n">
-        <v>392</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4704,19 +4642,11 @@
         <v>895632.2723899001</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>395</v>
-      </c>
-      <c r="J129" t="n">
-        <v>392</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4748,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>392</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4787,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>392</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4826,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>392</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4865,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>392</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4904,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>392</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4943,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>392</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4982,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>392</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5021,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>392</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5060,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>392</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5099,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>392</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5138,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>392</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5177,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>392</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5216,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>392</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5255,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>392</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5294,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>392</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5333,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>392</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5372,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>392</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5408,19 +5236,11 @@
         <v>880687.4729898999</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>391</v>
-      </c>
-      <c r="J147" t="n">
-        <v>392</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5449,19 +5269,11 @@
         <v>879424.9973898999</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>393</v>
-      </c>
-      <c r="J148" t="n">
-        <v>392</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5490,19 +5302,11 @@
         <v>879426.1773899</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>392</v>
-      </c>
-      <c r="J149" t="n">
-        <v>392</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5531,19 +5335,11 @@
         <v>879437.2073899</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>393</v>
-      </c>
-      <c r="J150" t="n">
-        <v>392</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5572,19 +5368,11 @@
         <v>879379.4436899</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>394</v>
-      </c>
-      <c r="J151" t="n">
-        <v>392</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5613,19 +5401,11 @@
         <v>879379.4436899</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>392</v>
-      </c>
-      <c r="J152" t="n">
-        <v>392</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5654,19 +5434,11 @@
         <v>879447.4436899</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>392</v>
-      </c>
-      <c r="J153" t="n">
-        <v>392</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5695,19 +5467,11 @@
         <v>879447.4436899</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>393</v>
-      </c>
-      <c r="J154" t="n">
-        <v>392</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5736,19 +5500,11 @@
         <v>879071.0108899</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>393</v>
-      </c>
-      <c r="J155" t="n">
-        <v>392</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5777,19 +5533,11 @@
         <v>878537.8453899</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>392</v>
-      </c>
-      <c r="J156" t="n">
-        <v>392</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5818,19 +5566,11 @@
         <v>878538.9653899</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>391</v>
-      </c>
-      <c r="J157" t="n">
-        <v>392</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5859,19 +5599,11 @@
         <v>867053.2106899</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>395</v>
-      </c>
-      <c r="J158" t="n">
-        <v>392</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5906,13 +5638,9 @@
         <v>391</v>
       </c>
       <c r="J159" t="n">
-        <v>392</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5941,17 +5669,15 @@
         <v>865797.5572899</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -5988,7 +5714,7 @@
         <v>391</v>
       </c>
       <c r="J161" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6029,7 +5755,7 @@
         <v>391</v>
       </c>
       <c r="J162" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6070,7 +5796,7 @@
         <v>391</v>
       </c>
       <c r="J163" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6111,7 +5837,7 @@
         <v>391</v>
       </c>
       <c r="J164" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6152,7 +5878,7 @@
         <v>390</v>
       </c>
       <c r="J165" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6193,7 +5919,7 @@
         <v>391</v>
       </c>
       <c r="J166" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6234,7 +5960,7 @@
         <v>390</v>
       </c>
       <c r="J167" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6275,7 +6001,7 @@
         <v>391</v>
       </c>
       <c r="J168" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6316,7 +6042,7 @@
         <v>394</v>
       </c>
       <c r="J169" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6357,7 +6083,7 @@
         <v>393</v>
       </c>
       <c r="J170" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6398,7 +6124,7 @@
         <v>393</v>
       </c>
       <c r="J171" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6439,7 +6165,7 @@
         <v>393</v>
       </c>
       <c r="J172" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6480,7 +6206,7 @@
         <v>396</v>
       </c>
       <c r="J173" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6515,11 +6241,13 @@
         <v>868670.9874853301</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>396</v>
+      </c>
       <c r="J174" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6560,7 +6288,7 @@
         <v>394</v>
       </c>
       <c r="J175" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6595,13 +6323,11 @@
         <v>868673.9874853301</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6640,7 +6366,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6679,7 +6405,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6718,7 +6444,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6753,13 +6479,11 @@
         <v>873067.68008533</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6794,13 +6518,11 @@
         <v>873068.68008533</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6839,7 +6561,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6878,7 +6600,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6913,13 +6635,11 @@
         <v>871409.5362853301</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6954,13 +6674,11 @@
         <v>873410.5362853301</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6999,7 +6717,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7038,7 +6756,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7073,13 +6791,11 @@
         <v>871965.7980853301</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7118,7 +6834,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7157,7 +6873,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7196,7 +6912,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7235,7 +6951,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7274,7 +6990,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7313,7 +7029,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7352,7 +7068,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7391,7 +7107,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7430,7 +7146,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7469,7 +7185,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7508,7 +7224,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7547,7 +7263,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7586,7 +7302,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7625,7 +7341,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7664,7 +7380,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7703,7 +7419,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7742,7 +7458,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7781,7 +7497,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7820,7 +7536,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7859,7 +7575,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7898,7 +7614,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7937,7 +7653,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7976,7 +7692,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8015,7 +7731,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8054,7 +7770,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8093,7 +7809,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8132,7 +7848,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8171,7 +7887,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8210,7 +7926,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8249,7 +7965,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8288,7 +8004,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8327,7 +8043,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8366,7 +8082,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8405,7 +8121,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8444,7 +8160,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8483,7 +8199,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8522,7 +8238,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8561,7 +8277,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8600,7 +8316,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8639,7 +8355,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8678,7 +8394,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8717,7 +8433,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8756,7 +8472,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8795,7 +8511,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8834,7 +8550,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8873,7 +8589,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8912,7 +8628,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8951,7 +8667,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8990,7 +8706,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9029,7 +8745,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9068,7 +8784,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9107,7 +8823,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9146,7 +8862,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9185,7 +8901,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9224,7 +8940,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9263,7 +8979,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9302,7 +9018,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9341,7 +9057,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9380,7 +9096,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9419,7 +9135,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9458,7 +9174,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9497,7 +9213,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9536,7 +9252,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9575,7 +9291,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9614,7 +9330,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9653,7 +9369,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9692,7 +9408,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9731,7 +9447,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9770,7 +9486,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9809,7 +9525,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9848,7 +9564,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9887,7 +9603,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9926,7 +9642,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9965,7 +9681,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10004,7 +9720,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10043,7 +9759,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10082,7 +9798,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10121,7 +9837,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10160,7 +9876,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10199,7 +9915,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10238,7 +9954,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10277,7 +9993,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10316,7 +10032,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10355,7 +10071,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10394,7 +10110,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10433,7 +10149,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10472,7 +10188,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10511,7 +10227,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10550,7 +10266,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10589,7 +10305,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10628,7 +10344,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10667,7 +10383,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10706,7 +10422,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10745,7 +10461,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10784,7 +10500,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10823,7 +10539,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10862,7 +10578,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10901,7 +10617,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10940,7 +10656,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10979,7 +10695,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11018,7 +10734,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11057,7 +10773,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11096,7 +10812,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11135,7 +10851,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11174,7 +10890,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11213,7 +10929,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11252,7 +10968,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11291,7 +11007,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11330,7 +11046,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11369,7 +11085,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11408,7 +11124,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11447,7 +11163,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11486,7 +11202,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11525,7 +11241,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11564,7 +11280,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11603,7 +11319,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11642,7 +11358,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11681,7 +11397,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11720,7 +11436,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11759,7 +11475,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11798,7 +11514,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11837,7 +11553,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11876,7 +11592,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11915,7 +11631,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11954,7 +11670,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11993,7 +11709,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12032,7 +11748,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12071,7 +11787,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12110,7 +11826,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12149,7 +11865,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12188,7 +11904,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12227,7 +11943,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12266,7 +11982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12305,7 +12021,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12344,7 +12060,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -12383,7 +12099,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12422,7 +12138,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -12461,7 +12177,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12500,7 +12216,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12539,7 +12255,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12578,7 +12294,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12617,7 +12333,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12656,7 +12372,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12695,7 +12411,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12734,7 +12450,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12773,7 +12489,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12812,7 +12528,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12851,7 +12567,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12890,7 +12606,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12929,7 +12645,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12968,7 +12684,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13007,7 +12723,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13046,7 +12762,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13085,7 +12801,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13124,7 +12840,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13163,7 +12879,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13202,7 +12918,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13241,7 +12957,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -13280,7 +12996,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -13319,7 +13035,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -13358,7 +13074,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -13397,7 +13113,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -13436,7 +13152,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -13475,7 +13191,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -13514,7 +13230,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -13553,7 +13269,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -13592,7 +13308,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -13631,7 +13347,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13670,7 +13386,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13709,7 +13425,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13748,7 +13464,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13787,7 +13503,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13826,7 +13542,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13865,7 +13581,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13904,7 +13620,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13939,13 +13655,11 @@
         <v>904460.3644848604</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13980,13 +13694,11 @@
         <v>909496.4525848605</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -14021,13 +13733,11 @@
         <v>909496.4525848605</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -14062,13 +13772,11 @@
         <v>909496.4525848605</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14107,7 +13815,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -14142,13 +13850,11 @@
         <v>902225.3484848605</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -14183,13 +13889,11 @@
         <v>900054.2824848605</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -14224,13 +13928,11 @@
         <v>900076.7848848605</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -14265,13 +13967,11 @@
         <v>900076.7848848605</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -14306,13 +14006,11 @@
         <v>895470.2959848605</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -14347,13 +14045,11 @@
         <v>927872.5995848605</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -14388,13 +14084,11 @@
         <v>937214.2145848605</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -14433,7 +14127,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -14472,7 +14166,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -14511,7 +14205,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -14550,7 +14244,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -14589,7 +14283,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -14628,7 +14322,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -14667,7 +14361,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -14706,7 +14400,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14745,7 +14439,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14784,7 +14478,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14823,7 +14517,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14862,7 +14556,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14901,7 +14595,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14940,7 +14634,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14979,7 +14673,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -15018,7 +14712,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -15057,7 +14751,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -15096,7 +14790,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -15135,7 +14829,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -15174,7 +14868,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -15213,7 +14907,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -15252,7 +14946,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -15291,7 +14985,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -15330,7 +15024,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -15369,7 +15063,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -15408,7 +15102,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -15447,7 +15141,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -15486,7 +15180,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -15525,7 +15219,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -15564,7 +15258,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -15603,7 +15297,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -15642,7 +15336,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -15681,7 +15375,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -15720,7 +15414,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15759,7 +15453,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15798,7 +15492,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15837,7 +15531,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15876,7 +15570,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15915,7 +15609,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15954,7 +15648,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15993,7 +15687,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -16032,7 +15726,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -16071,7 +15765,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -16110,7 +15804,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -16149,7 +15843,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -16188,7 +15882,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -16227,7 +15921,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -16266,7 +15960,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -16305,7 +15999,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -16344,7 +16038,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -16383,7 +16077,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -16422,7 +16116,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -16461,7 +16155,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -16500,7 +16194,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -16539,7 +16233,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -16578,7 +16272,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -16617,7 +16311,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -16652,13 +16346,11 @@
         <v>908230.8438546804</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -16697,7 +16389,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -16736,7 +16428,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16775,7 +16467,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16814,7 +16506,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16853,7 +16545,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16892,7 +16584,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16931,7 +16623,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16970,7 +16662,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -17009,7 +16701,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -17048,7 +16740,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -17087,7 +16779,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -17126,7 +16818,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -17165,7 +16857,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -17204,7 +16896,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -17243,7 +16935,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -17282,7 +16974,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -17321,7 +17013,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -17360,7 +17052,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -17399,7 +17091,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -17438,7 +17130,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -17477,7 +17169,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -17516,7 +17208,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -17555,7 +17247,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -17594,7 +17286,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -17633,7 +17325,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -17672,7 +17364,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -17711,7 +17403,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17750,7 +17442,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17789,7 +17481,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17828,7 +17520,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17867,7 +17559,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17906,7 +17598,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17945,7 +17637,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17984,7 +17676,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -18023,7 +17715,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -18062,7 +17754,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -18101,7 +17793,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -18140,7 +17832,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -18179,7 +17871,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -18218,7 +17910,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -18257,7 +17949,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -18296,7 +17988,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -18335,7 +18027,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -18374,7 +18066,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -18413,7 +18105,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -18452,7 +18144,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -18491,7 +18183,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -18530,7 +18222,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -18569,7 +18261,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -18608,7 +18300,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -18647,7 +18339,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -18686,7 +18378,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -18725,7 +18417,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -18764,7 +18456,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -18803,7 +18495,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -18842,7 +18534,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -18881,7 +18573,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -18920,7 +18612,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -18959,7 +18651,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -18998,7 +18690,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -19037,7 +18729,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -19076,7 +18768,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -19115,7 +18807,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -19154,7 +18846,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -19193,7 +18885,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -19232,7 +18924,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -19271,7 +18963,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -19310,7 +19002,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -19349,7 +19041,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -19388,7 +19080,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -19427,7 +19119,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -19466,7 +19158,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -19505,7 +19197,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -19544,7 +19236,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -19583,7 +19275,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -19622,7 +19314,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -19661,7 +19353,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -19700,7 +19392,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -19739,7 +19431,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -19778,7 +19470,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -19817,7 +19509,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -19856,7 +19548,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -19895,7 +19587,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -19934,7 +19626,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -19973,7 +19665,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -20012,7 +19704,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -20051,7 +19743,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -20090,7 +19782,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -20129,7 +19821,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -20168,7 +19860,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -20207,7 +19899,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -20246,7 +19938,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -20285,7 +19977,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -20324,7 +20016,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -20363,7 +20055,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -20402,7 +20094,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -20441,7 +20133,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -20480,7 +20172,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -20519,7 +20211,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -20558,7 +20250,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -20597,7 +20289,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -20636,7 +20328,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -20675,7 +20367,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -20714,7 +20406,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -20753,7 +20445,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -20792,7 +20484,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -20831,7 +20523,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -20870,7 +20562,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -20909,7 +20601,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -20948,7 +20640,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -20987,7 +20679,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -21026,7 +20718,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -21065,7 +20757,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -21104,7 +20796,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -21143,7 +20835,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -21182,7 +20874,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -21221,7 +20913,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -21260,7 +20952,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -21299,7 +20991,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -21338,7 +21030,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -21377,7 +21069,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -21416,7 +21108,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -21455,7 +21147,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -21494,7 +21186,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -21533,7 +21225,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -21572,7 +21264,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -21611,7 +21303,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -21650,7 +21342,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -21689,7 +21381,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -21728,7 +21420,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -21767,7 +21459,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -21806,7 +21498,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -21845,7 +21537,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -21884,7 +21576,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -21923,7 +21615,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -21962,7 +21654,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -22001,7 +21693,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -22040,7 +21732,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -22079,7 +21771,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -22118,7 +21810,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -22157,7 +21849,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -22196,7 +21888,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -22235,7 +21927,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -22274,7 +21966,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -22313,7 +22005,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -22352,7 +22044,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -22391,7 +22083,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -22430,7 +22122,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -22469,7 +22161,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -22508,7 +22200,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -22547,7 +22239,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -22586,7 +22278,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -22625,7 +22317,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -22664,7 +22356,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -22703,7 +22395,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -22742,7 +22434,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -22781,7 +22473,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -22820,7 +22512,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -22859,7 +22551,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -22898,7 +22590,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -22937,7 +22629,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -22976,7 +22668,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -23015,7 +22707,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -23054,7 +22746,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -23093,7 +22785,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -23132,7 +22824,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -23171,7 +22863,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -23210,7 +22902,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -23249,7 +22941,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -23288,7 +22980,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -23327,7 +23019,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -23366,7 +23058,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -23405,7 +23097,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -23444,7 +23136,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -23483,7 +23175,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -23522,7 +23214,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -23561,7 +23253,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -23600,7 +23292,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -23639,7 +23331,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -23678,7 +23370,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -23717,7 +23409,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -23756,7 +23448,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -23795,7 +23487,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -23834,7 +23526,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -23873,7 +23565,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -23912,7 +23604,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -23951,7 +23643,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -23990,7 +23682,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -24029,7 +23721,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -24068,7 +23760,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -24107,7 +23799,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -24142,19 +23834,19 @@
         <v>1162306.37966013</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L625" t="n">
-        <v>1.038367346938776</v>
+        <v>1</v>
       </c>
       <c r="M625" t="inlineStr"/>
     </row>
@@ -24181,11 +23873,17 @@
         <v>1145474.62256013</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>391</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -24217,8 +23915,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>391</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -24250,8 +23954,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>391</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -24280,11 +23990,17 @@
         <v>1147325.84970673</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>391</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -24313,11 +24029,17 @@
         <v>1195547.04478602</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>391</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -24346,11 +24068,17 @@
         <v>1188941.84250342</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>391</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -24379,11 +24107,17 @@
         <v>1188941.84250342</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>391</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -24412,11 +24146,17 @@
         <v>1180031.69060342</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>391</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -24445,11 +24185,17 @@
         <v>1190688.39133552</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>391</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -24478,11 +24224,17 @@
         <v>1190688.39133552</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>391</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -24511,11 +24263,17 @@
         <v>1208607.88078257</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>391</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -24544,11 +24302,17 @@
         <v>1241884.56394735</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>391</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -24577,11 +24341,17 @@
         <v>1336574.10888612</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>391</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -24610,11 +24380,17 @@
         <v>1336574.10888612</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>391</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -24643,11 +24419,17 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>391</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -24676,11 +24458,17 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>391</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -24709,11 +24497,17 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>391</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -24742,11 +24536,17 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>391</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -24775,11 +24575,17 @@
         <v>1384904.82711555</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>391</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -24808,11 +24614,17 @@
         <v>1371678.83691555</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>391</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -24841,11 +24653,17 @@
         <v>1327880.26951555</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>391</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24874,11 +24692,17 @@
         <v>1327880.26951555</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>391</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24910,8 +24734,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>391</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24940,11 +24770,17 @@
         <v>1472404.32193887</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>391</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24973,15 +24809,23 @@
         <v>1519118.28743887</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>391</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L650" t="n">
-        <v>1</v>
-      </c>
-      <c r="M650" t="inlineStr"/>
+        <v>1.102416879795397</v>
+      </c>
+      <c r="M650" t="n">
+        <v>1.030690537084399</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
@@ -25006,7 +24850,7 @@
         <v>1474337.24623887</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -25039,7 +24883,7 @@
         <v>1444252.82663887</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -25072,7 +24916,7 @@
         <v>1464285.22765914</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -25138,7 +24982,7 @@
         <v>1506986.26023679</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -25171,7 +25015,7 @@
         <v>1486898.15293679</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -25204,7 +25048,7 @@
         <v>1480799.81303679</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -25237,7 +25081,7 @@
         <v>1463828.13553679</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -25270,7 +25114,7 @@
         <v>1484273.76763679</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25303,7 +25147,7 @@
         <v>1478563.01123679</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -25336,7 +25180,7 @@
         <v>1478563.01123679</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25369,7 +25213,7 @@
         <v>1472863.26453679</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -25402,7 +25246,7 @@
         <v>1480047.31363679</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25435,7 +25279,7 @@
         <v>1468729.24179712</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -25468,7 +25312,7 @@
         <v>1465947.69799712</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25501,7 +25345,7 @@
         <v>1446441.081797119</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25534,7 +25378,7 @@
         <v>1428987.14479712</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25633,7 +25477,7 @@
         <v>1480089.20000664</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25666,7 +25510,7 @@
         <v>1480089.20000664</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
